--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,160 +64,160 @@
     <t>panic</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>clean</t>
@@ -829,10 +829,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.9777777777777777</v>
@@ -1161,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.9615384615384616</v>
@@ -1211,7 +1211,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1261,7 +1261,7 @@
         <v>431</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1290,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09701492537313433</v>
+        <v>0.004476584022038568</v>
       </c>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E11">
         <v>0.9399999999999999</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>121</v>
+        <v>2891</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>0.9310344827586207</v>
@@ -1336,32 +1336,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.004476584022038568</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>216</v>
-      </c>
-      <c r="E12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2891</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.9285714285714286</v>
@@ -1387,7 +1363,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.9166666666666666</v>
@@ -1413,7 +1389,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.905982905982906</v>
@@ -1439,7 +1415,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.8715596330275229</v>
@@ -1465,7 +1441,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.8666666666666667</v>
@@ -1491,7 +1467,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1517,7 +1493,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.8661417322834646</v>
@@ -1543,7 +1519,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>0.8529411764705882</v>
@@ -1569,7 +1545,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.851063829787234</v>
@@ -1595,7 +1571,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.8461538461538461</v>
@@ -1621,7 +1597,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.8421052631578947</v>
@@ -1647,7 +1623,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1673,7 +1649,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.825</v>
@@ -1699,7 +1675,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>0.8235294117647058</v>
@@ -1725,7 +1701,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -1751,7 +1727,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>0.8181818181818182</v>
@@ -1777,7 +1753,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>0.8095238095238095</v>
@@ -1803,7 +1779,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.797979797979798</v>
@@ -1829,7 +1805,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>0.7948717948717948</v>
@@ -1855,7 +1831,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>0.7777777777777778</v>
@@ -1881,7 +1857,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>0.7659574468085106</v>
@@ -1907,7 +1883,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>0.7647058823529411</v>
@@ -1933,7 +1909,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>0.7551020408163265</v>
@@ -1959,7 +1935,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>0.75</v>
@@ -1985,16 +1961,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.7324561403508771</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L36">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="M36">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="N36">
         <v>0.9399999999999999</v>
@@ -2006,21 +1982,21 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.7222222222222222</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L37">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>0.9399999999999999</v>
@@ -2032,38 +2008,38 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.7173913043478261</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>0.6818181818181818</v>
@@ -2089,7 +2065,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>0.6764705882352942</v>
@@ -2115,7 +2091,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>0.6585365853658537</v>
@@ -2141,7 +2117,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
         <v>0.65625</v>
@@ -2167,7 +2143,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
         <v>0.6363636363636364</v>
@@ -2193,7 +2169,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
         <v>0.6304347826086957</v>
@@ -2219,28 +2195,28 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.6299694189602446</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L45">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2248,25 +2224,25 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.6296296296296297</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2274,25 +2250,25 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.6289473684210526</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L47">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2300,25 +2276,25 @@
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.6190476190476191</v>
+        <v>0.6175438596491228</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2326,25 +2302,25 @@
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.6175438596491228</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L49">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="N49">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2352,25 +2328,25 @@
         <v>65</v>
       </c>
       <c r="K50">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2384,16 +2360,16 @@
         <v>14</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -2404,25 +2380,25 @@
         <v>67</v>
       </c>
       <c r="K52">
-        <v>0.6086956521739131</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -4351,7 +4327,7 @@
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K127">
         <v>0.06561085972850679</v>
